--- a/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoneyViaMore_Interbank.xlsx
+++ b/HBLAutomationAndroid/Resources/Feature/HBLMobile/Data/SendMoneyViaMore_Interbank.xlsx
@@ -117,9 +117,6 @@
     <t>Success_Message</t>
   </si>
   <si>
-    <t>Your transaction has been processed successfully.</t>
-  </si>
-  <si>
     <t>02197900643103</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>AliOtherBank</t>
+  </si>
+  <si>
+    <t>Money sent successfully.</t>
   </si>
 </sst>
 </file>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -589,28 +589,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
@@ -619,13 +619,13 @@
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>22</v>
